--- a/Data y gráficos/PCA/Data inclusion financiera.xlsx
+++ b/Data y gráficos/PCA/Data inclusion financiera.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,21 @@
   <sheets>
     <sheet name="Hoja4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -64,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,13 +431,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="11" width="12.6640625" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>36981</v>
       </c>
@@ -496,7 +507,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>37072</v>
       </c>
@@ -531,7 +542,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>37164</v>
       </c>
@@ -566,7 +577,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>37256</v>
       </c>
@@ -601,7 +612,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>37346</v>
       </c>
@@ -636,7 +647,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>37437</v>
       </c>
@@ -671,7 +682,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>37529</v>
       </c>
@@ -706,7 +717,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>37621</v>
       </c>
@@ -741,7 +752,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>37711</v>
       </c>
@@ -776,7 +787,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>37802</v>
       </c>
@@ -811,7 +822,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>37894</v>
       </c>
@@ -846,7 +857,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>37986</v>
       </c>
@@ -881,7 +892,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>38077</v>
       </c>
@@ -916,7 +927,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>38168</v>
       </c>
@@ -951,7 +962,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>38260</v>
       </c>
@@ -986,7 +997,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>38352</v>
       </c>
@@ -1021,7 +1032,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>38442</v>
       </c>
@@ -1056,7 +1067,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>38533</v>
       </c>
@@ -1091,7 +1102,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>38625</v>
       </c>
@@ -1126,7 +1137,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>38717</v>
       </c>
@@ -1161,7 +1172,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>38807</v>
       </c>
@@ -1196,7 +1207,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>38898</v>
       </c>
@@ -1231,7 +1242,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>38990</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>39172</v>
       </c>
@@ -1336,7 +1347,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>39263</v>
       </c>
@@ -1371,7 +1382,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>39355</v>
       </c>
@@ -1406,7 +1417,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>39447</v>
       </c>
@@ -1441,7 +1452,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>39538</v>
       </c>
@@ -1476,7 +1487,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>39629</v>
       </c>
@@ -1511,7 +1522,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>39721</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>39813</v>
       </c>
@@ -1581,7 +1592,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>39903</v>
       </c>
@@ -1616,7 +1627,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>39994</v>
       </c>
@@ -1651,7 +1662,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>40086</v>
       </c>
@@ -1686,7 +1697,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>40178</v>
       </c>
@@ -1721,7 +1732,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>40268</v>
       </c>
@@ -1756,7 +1767,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>40359</v>
       </c>
@@ -1791,7 +1802,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>40451</v>
       </c>
@@ -1826,7 +1837,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>40543</v>
       </c>
@@ -1861,7 +1872,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>40633</v>
       </c>
@@ -1896,7 +1907,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>40724</v>
       </c>
@@ -1931,7 +1942,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>40816</v>
       </c>
@@ -1966,7 +1977,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>40908</v>
       </c>
@@ -2001,7 +2012,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>40999</v>
       </c>
@@ -2036,7 +2047,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>41090</v>
       </c>
@@ -2071,7 +2082,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>41182</v>
       </c>
@@ -2106,7 +2117,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>41274</v>
       </c>
@@ -2141,7 +2152,7 @@
         <v>3813</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>41364</v>
       </c>
@@ -2176,7 +2187,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>41455</v>
       </c>
@@ -2211,7 +2222,7 @@
         <v>3983</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>41547</v>
       </c>
@@ -2246,7 +2257,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>41639</v>
       </c>
@@ -2281,7 +2292,7 @@
         <v>4134</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>41729</v>
       </c>
@@ -2316,7 +2327,7 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>41820</v>
       </c>
@@ -2351,7 +2362,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>41912</v>
       </c>
@@ -2386,7 +2397,7 @@
         <v>4285</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>42004</v>
       </c>
@@ -2421,7 +2432,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>42094</v>
       </c>
@@ -2456,7 +2467,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>42185</v>
       </c>
@@ -2491,7 +2502,7 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>42277</v>
       </c>
@@ -2526,7 +2537,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>42369</v>
       </c>
@@ -2561,7 +2572,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>42460</v>
       </c>
@@ -2596,7 +2607,7 @@
         <v>4468</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>42551</v>
       </c>
@@ -2631,7 +2642,7 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>42643</v>
       </c>
@@ -2666,7 +2677,7 @@
         <v>4483</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>42735</v>
       </c>
@@ -2701,7 +2712,7 @@
         <v>4614</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>42825</v>
       </c>
@@ -2736,7 +2747,7 @@
         <v>4641</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>42916</v>
       </c>
@@ -2771,7 +2782,7 @@
         <v>4627</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>43008</v>
       </c>
@@ -2806,7 +2817,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>43100</v>
       </c>
@@ -2841,7 +2852,7 @@
         <v>4651</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>43190</v>
       </c>
@@ -2876,7 +2887,7 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>43281</v>
       </c>
@@ -2911,7 +2922,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>43373</v>
       </c>
@@ -2946,7 +2957,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>43465</v>
       </c>
@@ -2981,7 +2992,7 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>43555</v>
       </c>
@@ -3016,7 +3027,7 @@
         <v>4705</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>43646</v>
       </c>
@@ -3051,7 +3062,7 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>43738</v>
       </c>
@@ -3086,7 +3097,7 @@
         <v>4714</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>43830</v>
       </c>
@@ -3121,7 +3132,7 @@
         <v>4715</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>43921</v>
       </c>
@@ -3156,7 +3167,7 @@
         <v>4720</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>44012</v>
       </c>
@@ -3191,7 +3202,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>44104</v>
       </c>
@@ -3226,7 +3237,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>44196</v>
       </c>
@@ -3261,7 +3272,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>44286</v>
       </c>
@@ -3296,7 +3307,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>44377</v>
       </c>
@@ -3331,7 +3342,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>44469</v>
       </c>
@@ -3366,7 +3377,7 @@
         <v>4341</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>44561</v>
       </c>
@@ -3401,7 +3412,7 @@
         <v>4289</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>44651</v>
       </c>
@@ -3436,7 +3447,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>44742</v>
       </c>
@@ -3471,7 +3482,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>44834</v>
       </c>
